--- a/run_entrance/test_suite/test_suite_jbj04制证.xlsx
+++ b/run_entrance/test_suite/test_suite_jbj04制证.xlsx
@@ -175,7 +175,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://10.45.67.194:9180/</t>
+    <t>http://10.45.67.194:9180/mainmanager.html</t>
   </si>
   <si>
     <t>测试用例序号</t>
@@ -297,12 +297,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,17 +321,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="10.5"/>
+      <color rgb="FF3296FA"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,6 +343,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -351,6 +417,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -359,53 +433,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,40 +457,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,187 +486,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,17 +680,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,8 +707,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,7 +717,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +733,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,15 +769,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -779,10 +785,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,19 +797,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,116 +818,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,6 +978,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1329,8 +1338,8 @@
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="84.875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="84.875" style="21" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1344,10 +1353,10 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1367,7 +1376,7 @@
       <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1382,7 +1391,7 @@
       <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1397,7 +1406,7 @@
       <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1414,7 +1423,7 @@
       <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1428,7 +1437,7 @@
       <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1442,10 +1451,10 @@
       <c r="C7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1457,7 +1466,7 @@
       <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -1474,10 +1483,10 @@
       <c r="C9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1488,10 +1497,10 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1502,10 +1511,10 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1516,7 +1525,7 @@
       <c r="C12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -1530,10 +1539,10 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1544,7 +1553,7 @@
       <c r="C14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -1561,10 +1570,10 @@
       <c r="C15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1576,10 +1585,10 @@
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1590,7 +1599,7 @@
       <c r="C17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -1605,7 +1614,7 @@
       <c r="C18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -1619,7 +1628,7 @@
       <c r="C19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -1633,7 +1642,7 @@
       <c r="C20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -1643,19 +1652,19 @@
     <row r="21" ht="14.25" spans="2:5">
       <c r="B21" s="15"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="23"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="8"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="8"/>
@@ -1688,12 +1697,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="16" t="s">
+    <row r="2" ht="15.75" spans="1:1">
+      <c r="A2" s="19" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://10.45.67.194:9180/mainmanager.html" tooltip="http://10.45.67.194:9180/mainmanager.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1869,7 +1881,7 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>83</v>
       </c>
       <c r="E2" s="9"/>
